--- a/2-working-with-multiple-groups/iris-corr.xlsx
+++ b/2-working-with-multiple-groups/iris-corr.xlsx
@@ -1,26 +1,36 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\GitHub\olt-intermediate-stats\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GeorgeM\Documents\GitHub\olt-intermediate-stats\2-working-with-multiple-groups\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{649055C4-7713-45BA-80C9-EBC160B11FB1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{579B0B12-59DA-49E8-AFE9-5ADA5B2E1385}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-93" yWindow="-93" windowWidth="25786" windowHeight="14586"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="iris" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="8">
   <si>
     <t>Sepal.Length</t>
   </si>
@@ -49,8 +59,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="18" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -181,6 +191,14 @@
     <font>
       <sz val="12"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -367,7 +385,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -482,6 +500,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -527,8 +565,13 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -585,6 +628,1799 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Relationship between sepal length and sepal width</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>iris!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Sepal.Width</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>iris!$A$2:$A$151</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="150"/>
+                <c:pt idx="0">
+                  <c:v>5.0999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.9000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.7</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.5999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.5999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4.4000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4.9000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5.4</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4.8</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4.8</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>4.3</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>5.8</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>5.7</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>5.4</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>5.0999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>5.7</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>5.0999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>5.4</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>5.0999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>4.5999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>5.0999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>4.8</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>5.2</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>5.2</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>4.7</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>4.8</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>5.4</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>5.2</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>5.5</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>4.9000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>5.5</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>4.9000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>4.4000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>5.0999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>4.4000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>5.0999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>4.8</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>5.0999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>4.5999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>5.3</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>6.4</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>6.9</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>5.5</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>6.5</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>5.7</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>6.3</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>4.9000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>6.6</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>5.2</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>5.9</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>6.1</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>5.6</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>6.7</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>5.6</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>5.8</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>6.2</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>5.6</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>5.9</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>6.1</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>6.3</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>6.1</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>6.4</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>6.6</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>6.8</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>6.7</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>5.7</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>5.5</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>5.5</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>5.8</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>5.4</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>6.7</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>6.3</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>5.6</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>5.5</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>5.5</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>6.1</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>5.8</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>5.6</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>5.7</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>5.7</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>6.2</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>5.0999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>5.7</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>6.3</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>5.8</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>7.1</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>6.3</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>6.5</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>7.6</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>4.9000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>7.3</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>6.7</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>7.2</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>6.5</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>6.4</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>6.8</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>5.7</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>5.8</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>6.4</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>6.5</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>7.7</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>7.7</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>6.9</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>5.6</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>7.7</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>6.3</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>6.7</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>7.2</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>6.2</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>6.1</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>6.4</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>7.2</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>7.4</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>7.9</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>6.4</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>6.3</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>6.1</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>7.7</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>6.3</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>6.4</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>6.9</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>6.7</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>6.9</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>5.8</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>6.8</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>6.7</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>6.7</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>6.3</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>6.5</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>6.2</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>5.9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>iris!$B$2:$B$151</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="150"/>
+                <c:pt idx="0">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.9</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.1</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3.7</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3.4</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>4.4000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>3.9</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>3.8</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>3.8</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>3.4</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>3.7</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>3.6</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>3.3</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>3.4</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>3.4</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>3.4</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>3.2</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>3.1</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>3.4</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>4.0999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>4.2</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>3.1</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>3.2</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>3.6</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>3.4</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>2.2999999999999998</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>3.2</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>3.8</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>3.8</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>3.2</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>3.7</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>3.3</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>3.2</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>3.2</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>3.1</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>2.2999999999999998</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>2.8</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>2.8</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>3.3</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>2.4</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>2.9</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>2.7</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>2.2000000000000002</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>2.9</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>2.9</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>3.1</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>2.7</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>2.2000000000000002</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>3.2</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>2.8</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>2.8</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>2.9</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>2.8</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>2.9</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>2.6</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>2.4</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>2.4</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>2.7</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>2.7</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>3.4</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>3.1</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>2.2999999999999998</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>2.6</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>2.6</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>2.2999999999999998</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>2.7</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>2.9</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>2.9</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>2.8</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>3.3</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>2.7</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>2.9</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>2.9</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>3.6</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>3.2</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>2.7</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>2.8</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>3.2</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>3.8</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>2.6</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>2.2000000000000002</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>3.2</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>2.8</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>2.8</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>2.7</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>3.3</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>3.2</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>2.8</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>2.8</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>2.8</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>3.8</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>2.8</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>2.8</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>2.6</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>3.4</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>3.1</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>3.1</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>3.1</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>3.1</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>2.7</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>3.2</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>3.3</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>3.4</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-3C31-4FF3-BD54-D0EC492BBA3F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="415081840"/>
+        <c:axId val="622411024"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="415081840"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="4"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="622411024"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="622411024"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="415081840"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>765810</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>125730</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A7A55B9E-56A9-4C18-9EC5-2A94ED509CBE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -883,16 +2719,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E151"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:K151"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.7" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="7" max="7" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.8984375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.19921875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -908,8 +2750,21 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="G1" s="3"/>
+      <c r="H1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>5.0999999999999996</v>
       </c>
@@ -925,8 +2780,17 @@
       <c r="E2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="G2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H2" s="1">
+        <v>1</v>
+      </c>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>4.9000000000000004</v>
       </c>
@@ -942,8 +2806,19 @@
       <c r="E3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="G3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H3" s="1">
+        <v>-0.11756978413300205</v>
+      </c>
+      <c r="I3" s="1">
+        <v>1</v>
+      </c>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>4.7</v>
       </c>
@@ -959,8 +2834,21 @@
       <c r="E4" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="G4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H4" s="1">
+        <v>0.87175377588658276</v>
+      </c>
+      <c r="I4" s="1">
+        <v>-0.42844010433054003</v>
+      </c>
+      <c r="J4" s="1">
+        <v>1</v>
+      </c>
+      <c r="K4" s="1"/>
+    </row>
+    <row r="5" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>4.5999999999999996</v>
       </c>
@@ -976,8 +2864,23 @@
       <c r="E5" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="G5" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H5" s="2">
+        <v>0.81794112627157578</v>
+      </c>
+      <c r="I5" s="2">
+        <v>-0.36612593253643949</v>
+      </c>
+      <c r="J5" s="2">
+        <v>0.96286543140279557</v>
+      </c>
+      <c r="K5" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -994,7 +2897,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>5.4</v>
       </c>
@@ -1011,7 +2914,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>4.5999999999999996</v>
       </c>
@@ -1028,7 +2931,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>5</v>
       </c>
@@ -1045,7 +2948,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>4.4000000000000004</v>
       </c>
@@ -1062,7 +2965,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>4.9000000000000004</v>
       </c>
@@ -1079,7 +2982,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>5.4</v>
       </c>
@@ -1096,7 +2999,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>4.8</v>
       </c>
@@ -1113,7 +3016,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>4.8</v>
       </c>
@@ -1130,7 +3033,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>4.3</v>
       </c>
@@ -1147,7 +3050,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>5.8</v>
       </c>
@@ -1164,7 +3067,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>5.7</v>
       </c>
@@ -1181,7 +3084,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>5.4</v>
       </c>
@@ -1198,7 +3101,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>5.0999999999999996</v>
       </c>
@@ -1215,7 +3118,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>5.7</v>
       </c>
@@ -1232,7 +3135,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>5.0999999999999996</v>
       </c>
@@ -1249,7 +3152,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>5.4</v>
       </c>
@@ -1266,7 +3169,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>5.0999999999999996</v>
       </c>
@@ -1283,7 +3186,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>4.5999999999999996</v>
       </c>
@@ -1300,7 +3203,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>5.0999999999999996</v>
       </c>
@@ -1317,7 +3220,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>4.8</v>
       </c>
@@ -1334,7 +3237,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>5</v>
       </c>
@@ -1351,7 +3254,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>5</v>
       </c>
@@ -1368,7 +3271,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>5.2</v>
       </c>
@@ -1385,7 +3288,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>5.2</v>
       </c>
@@ -1402,7 +3305,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>4.7</v>
       </c>
@@ -1419,7 +3322,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>4.8</v>
       </c>
@@ -1436,7 +3339,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>5.4</v>
       </c>
@@ -1453,7 +3356,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>5.2</v>
       </c>
@@ -1470,7 +3373,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>5.5</v>
       </c>
@@ -1487,7 +3390,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>4.9000000000000004</v>
       </c>
@@ -1504,7 +3407,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>5</v>
       </c>
@@ -1521,7 +3424,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>5.5</v>
       </c>
@@ -1538,7 +3441,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>4.9000000000000004</v>
       </c>
@@ -1555,7 +3458,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>4.4000000000000004</v>
       </c>
@@ -1572,7 +3475,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>5.0999999999999996</v>
       </c>
@@ -1589,7 +3492,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>5</v>
       </c>
@@ -1606,7 +3509,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>4.5</v>
       </c>
@@ -1623,7 +3526,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>4.4000000000000004</v>
       </c>
@@ -1640,7 +3543,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>5</v>
       </c>
@@ -1657,7 +3560,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>5.0999999999999996</v>
       </c>
@@ -1674,7 +3577,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>4.8</v>
       </c>
@@ -1691,7 +3594,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>5.0999999999999996</v>
       </c>
@@ -1708,7 +3611,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>4.5999999999999996</v>
       </c>
@@ -1725,7 +3628,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>5.3</v>
       </c>
@@ -1742,7 +3645,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>5</v>
       </c>
@@ -1759,7 +3662,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>7</v>
       </c>
@@ -1776,7 +3679,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>6.4</v>
       </c>
@@ -1793,7 +3696,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>6.9</v>
       </c>
@@ -1810,7 +3713,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>5.5</v>
       </c>
@@ -1827,7 +3730,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>6.5</v>
       </c>
@@ -1844,7 +3747,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>5.7</v>
       </c>
@@ -1861,7 +3764,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>6.3</v>
       </c>
@@ -1878,7 +3781,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>4.9000000000000004</v>
       </c>
@@ -1895,7 +3798,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>6.6</v>
       </c>
@@ -1912,7 +3815,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>5.2</v>
       </c>
@@ -1929,7 +3832,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>5</v>
       </c>
@@ -1946,7 +3849,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>5.9</v>
       </c>
@@ -1963,7 +3866,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>6</v>
       </c>
@@ -1980,7 +3883,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>6.1</v>
       </c>
@@ -1997,7 +3900,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>5.6</v>
       </c>
@@ -2014,7 +3917,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>6.7</v>
       </c>
@@ -2031,7 +3934,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>5.6</v>
       </c>
@@ -2048,7 +3951,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>5.8</v>
       </c>
@@ -2065,7 +3968,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>6.2</v>
       </c>
@@ -2082,7 +3985,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>5.6</v>
       </c>
@@ -2099,7 +4002,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>5.9</v>
       </c>
@@ -2116,7 +4019,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>6.1</v>
       </c>
@@ -2133,7 +4036,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>6.3</v>
       </c>
@@ -2150,7 +4053,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>6.1</v>
       </c>
@@ -2167,7 +4070,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>6.4</v>
       </c>
@@ -2184,7 +4087,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>6.6</v>
       </c>
@@ -2201,7 +4104,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>6.8</v>
       </c>
@@ -2218,7 +4121,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>6.7</v>
       </c>
@@ -2235,7 +4138,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>6</v>
       </c>
@@ -2252,7 +4155,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>5.7</v>
       </c>
@@ -2269,7 +4172,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>5.5</v>
       </c>
@@ -2286,7 +4189,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>5.5</v>
       </c>
@@ -2303,7 +4206,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>5.8</v>
       </c>
@@ -2320,7 +4223,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>6</v>
       </c>
@@ -2337,7 +4240,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>5.4</v>
       </c>
@@ -2354,7 +4257,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>6</v>
       </c>
@@ -2371,7 +4274,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>6.7</v>
       </c>
@@ -2388,7 +4291,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>6.3</v>
       </c>
@@ -2405,7 +4308,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>5.6</v>
       </c>
@@ -2422,7 +4325,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>5.5</v>
       </c>
@@ -2439,7 +4342,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>5.5</v>
       </c>
@@ -2456,7 +4359,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A93">
         <v>6.1</v>
       </c>
@@ -2473,7 +4376,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A94">
         <v>5.8</v>
       </c>
@@ -2490,7 +4393,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A95">
         <v>5</v>
       </c>
@@ -2507,7 +4410,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A96">
         <v>5.6</v>
       </c>
@@ -2524,7 +4427,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A97">
         <v>5.7</v>
       </c>
@@ -2541,7 +4444,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A98">
         <v>5.7</v>
       </c>
@@ -2558,7 +4461,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A99">
         <v>6.2</v>
       </c>
@@ -2575,7 +4478,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A100">
         <v>5.0999999999999996</v>
       </c>
@@ -2592,7 +4495,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A101">
         <v>5.7</v>
       </c>
@@ -2609,7 +4512,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A102">
         <v>6.3</v>
       </c>
@@ -2626,7 +4529,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A103">
         <v>5.8</v>
       </c>
@@ -2643,7 +4546,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A104">
         <v>7.1</v>
       </c>
@@ -2660,7 +4563,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A105">
         <v>6.3</v>
       </c>
@@ -2677,7 +4580,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A106">
         <v>6.5</v>
       </c>
@@ -2694,7 +4597,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A107">
         <v>7.6</v>
       </c>
@@ -2711,7 +4614,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A108">
         <v>4.9000000000000004</v>
       </c>
@@ -2728,7 +4631,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A109">
         <v>7.3</v>
       </c>
@@ -2745,7 +4648,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A110">
         <v>6.7</v>
       </c>
@@ -2762,7 +4665,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A111">
         <v>7.2</v>
       </c>
@@ -2779,7 +4682,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A112">
         <v>6.5</v>
       </c>
@@ -2796,7 +4699,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A113">
         <v>6.4</v>
       </c>
@@ -2813,7 +4716,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="114" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A114">
         <v>6.8</v>
       </c>
@@ -2830,7 +4733,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="115" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A115">
         <v>5.7</v>
       </c>
@@ -2847,7 +4750,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="116" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A116">
         <v>5.8</v>
       </c>
@@ -2864,7 +4767,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="117" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A117">
         <v>6.4</v>
       </c>
@@ -2881,7 +4784,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="118" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A118">
         <v>6.5</v>
       </c>
@@ -2898,7 +4801,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="119" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A119">
         <v>7.7</v>
       </c>
@@ -2915,7 +4818,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="120" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A120">
         <v>7.7</v>
       </c>
@@ -2932,7 +4835,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="121" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A121">
         <v>6</v>
       </c>
@@ -2949,7 +4852,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="122" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A122">
         <v>6.9</v>
       </c>
@@ -2966,7 +4869,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="123" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A123">
         <v>5.6</v>
       </c>
@@ -2983,7 +4886,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="124" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A124">
         <v>7.7</v>
       </c>
@@ -3000,7 +4903,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="125" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A125">
         <v>6.3</v>
       </c>
@@ -3017,7 +4920,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="126" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A126">
         <v>6.7</v>
       </c>
@@ -3034,7 +4937,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="127" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A127">
         <v>7.2</v>
       </c>
@@ -3051,7 +4954,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="128" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A128">
         <v>6.2</v>
       </c>
@@ -3068,7 +4971,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="129" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A129">
         <v>6.1</v>
       </c>
@@ -3085,7 +4988,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="130" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A130">
         <v>6.4</v>
       </c>
@@ -3102,7 +5005,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="131" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A131">
         <v>7.2</v>
       </c>
@@ -3119,7 +5022,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="132" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A132">
         <v>7.4</v>
       </c>
@@ -3136,7 +5039,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="133" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A133">
         <v>7.9</v>
       </c>
@@ -3153,7 +5056,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="134" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A134">
         <v>6.4</v>
       </c>
@@ -3170,7 +5073,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="135" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A135">
         <v>6.3</v>
       </c>
@@ -3187,7 +5090,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="136" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A136">
         <v>6.1</v>
       </c>
@@ -3204,7 +5107,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="137" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A137">
         <v>7.7</v>
       </c>
@@ -3221,7 +5124,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="138" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A138">
         <v>6.3</v>
       </c>
@@ -3238,7 +5141,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="139" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A139">
         <v>6.4</v>
       </c>
@@ -3255,7 +5158,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="140" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A140">
         <v>6</v>
       </c>
@@ -3272,7 +5175,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="141" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A141">
         <v>6.9</v>
       </c>
@@ -3289,7 +5192,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="142" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A142">
         <v>6.7</v>
       </c>
@@ -3306,7 +5209,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="143" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A143">
         <v>6.9</v>
       </c>
@@ -3323,7 +5226,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="144" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A144">
         <v>5.8</v>
       </c>
@@ -3340,7 +5243,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="145" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A145">
         <v>6.8</v>
       </c>
@@ -3357,7 +5260,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="146" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A146">
         <v>6.7</v>
       </c>
@@ -3374,7 +5277,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="147" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A147">
         <v>6.7</v>
       </c>
@@ -3391,7 +5294,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="148" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A148">
         <v>6.3</v>
       </c>
@@ -3408,7 +5311,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="149" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A149">
         <v>6.5</v>
       </c>
@@ -3425,7 +5328,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="150" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A150">
         <v>6.2</v>
       </c>
@@ -3442,7 +5345,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="151" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A151">
         <v>5.9</v>
       </c>
@@ -3460,6 +5363,19 @@
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="H3:H5 I4:I5 J5">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>